--- a/modules/module7/gpa.xlsx
+++ b/modules/module7/gpa.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinasalazar/Dropbox/HED696C_RClass/modules/module7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50865822-85A3-DA4A-B598-399167D98C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669EF219-74F0-C945-B7CF-84B7A29E8F95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A8E61957-FC37-5D47-BEF0-F318C1DF4A9F}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16560" activeTab="1" xr2:uid="{A8E61957-FC37-5D47-BEF0-F318C1DF4A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>student_id</t>
   </si>
@@ -70,15 +71,93 @@
   </si>
   <si>
     <t>2015 Fall  Quality Points for Student_id 1 =  29 (9+9+8+3)</t>
+  </si>
+  <si>
+    <t>studentid</t>
+  </si>
+  <si>
+    <t>transnum</t>
+  </si>
+  <si>
+    <t>gradtype</t>
+  </si>
+  <si>
+    <t>crsgrada</t>
+  </si>
+  <si>
+    <t>crsgradb</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>{missing}</t>
+  </si>
+  <si>
+    <t>crsegradb_v2</t>
+  </si>
+  <si>
+    <t>numgrade_v2</t>
+  </si>
+  <si>
+    <t>qualpts</t>
+  </si>
+  <si>
+    <t>termnum</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>crscred_v2</t>
+  </si>
+  <si>
+    <t>institution 1 GPA =</t>
+  </si>
+  <si>
+    <t>Institution 2 GPA=</t>
+  </si>
+  <si>
+    <t>Institution 1 Term 1 GPA=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institution 1 Term 2 GPA= </t>
+  </si>
+  <si>
+    <t>Institution 2 Term 1 GPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,8 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E7AE0-2865-5844-A5AC-89DC90893FE6}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -570,4 +653,366 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB824D-B3C8-8647-9892-E97D21EFABE2}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <f>J2*G2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="K3" s="2">
+        <f>J3*G3</f>
+        <v>11.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K7" si="0">J4*G4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <f>K2+K3+K4</f>
+        <v>33.1</v>
+      </c>
+      <c r="I11">
+        <f>G2+G3+G4</f>
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <f>H11/I11</f>
+        <v>3.0090909090909093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <f>K5+K6+K7</f>
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <f>G5+G6+G7</f>
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <f>H12/I12</f>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <f>K2+K3</f>
+        <v>23.1</v>
+      </c>
+      <c r="I16">
+        <f>G2+G3</f>
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <f>H16/I16</f>
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <f>K4</f>
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <f>G4</f>
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <f>H17/5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <f>K5+K6+K7</f>
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <f>G5+G6+G7</f>
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <f>H18/7</f>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>